--- a/Data/Test (2).xlsx
+++ b/Data/Test (2).xlsx
@@ -469,10 +469,16 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -505,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>44045</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -521,9 +527,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>44046</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="F3" t="s">
         <v>8</v>
       </c>
@@ -538,9 +542,7 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>44047</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -555,9 +557,7 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
-        <v>44048</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="F5" t="s">
         <v>8</v>
       </c>
@@ -572,9 +572,7 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
-        <v>44049</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="F6" t="s">
         <v>8</v>
       </c>
@@ -586,9 +584,7 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1">
-        <v>44050</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="F7" t="s">
         <v>8</v>
       </c>
@@ -603,9 +599,7 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1">
-        <v>44051</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="F8" t="s">
         <v>8</v>
       </c>
@@ -620,9 +614,7 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1">
-        <v>44052</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="F9" t="s">
         <v>8</v>
       </c>
@@ -637,9 +629,7 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1">
-        <v>44053</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="F10" t="s">
         <v>8</v>
       </c>
@@ -654,9 +644,7 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1">
-        <v>44054</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="F11" t="s">
         <v>8</v>
       </c>
@@ -668,9 +656,7 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1">
-        <v>44055</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="F12" t="s">
         <v>8</v>
       </c>
@@ -685,9 +671,7 @@
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1">
-        <v>44066</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="F13" t="s">
         <v>40</v>
       </c>
